--- a/data/trans_camb/P3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P3_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-3,25</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1,34</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 5,61</t>
+          <t>-6,05; 5,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 4,88</t>
+          <t>-7,03; 3,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 6,56</t>
+          <t>-4,78; 6,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,81; -0,44</t>
+          <t>-6,59; 5,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 6,54</t>
+          <t>-9,2; 2,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 5,68</t>
+          <t>-3,52; 6,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 4,78</t>
+          <t>-3,71; 5,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 1,86</t>
+          <t>-4,09; 5,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,84</t>
+          <t>-4,37; 4,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 3,71</t>
+          <t>-4,05; 6,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 4,45</t>
+          <t>-8,16; 2,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-7,82; -0,68</t>
+          <t>-3,47; 5,8</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,22; 3,8</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,34; 3,45</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 3,78</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-3,3; 4,21</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-7,21; 0,92</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-1,89; 4,71</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>-2,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>-3,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-16,3%</t>
+          <t>-0,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>-10,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-10,76%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>-9,35%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-13,5%</t>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-0,64%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-10,06%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 17,69</t>
+          <t>-17,04; 16,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 15,7</t>
+          <t>-19,35; 12,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 20,97</t>
+          <t>-13,19; 20,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,97; -1,53</t>
+          <t>-18,79; 18,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 23,08</t>
+          <t>-26,27; 8,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 19,55</t>
+          <t>-11,22; 25,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 16,35</t>
+          <t>-11,31; 19,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,85; 6,51</t>
+          <t>-11,97; 18,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 16,18</t>
+          <t>-13,58; 16,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 12,28</t>
+          <t>-12,31; 21,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 15,12</t>
+          <t>-23,61; 7,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-23,01; -2,13</t>
+          <t>-11,33; 24,21</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-9,67; 12,32</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-9,99; 11,43</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-10,16; 12,41</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-9,98; 13,85</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-20,76; 3,05</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-6,38; 18,23</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-12,7</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-13,02</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,45</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,91</t>
+          <t>-3,23</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-10,3</t>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-2,23</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-2,01</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-2,87</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-2,66</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-8,89</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 5,5</t>
+          <t>-9,41; 4,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 5,43</t>
+          <t>-7,6; 5,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 3,62</t>
+          <t>-9,27; 4,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,95; -4,58</t>
+          <t>-9,64; 4,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 3,59</t>
+          <t>-22,21; -3,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 2,19</t>
+          <t>-13,19; 7,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 3,28</t>
+          <t>-8,57; 4,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 0,18</t>
+          <t>-9,01; 1,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 3,14</t>
+          <t>-9,49; 2,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 2,53</t>
+          <t>-9,82; 3,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 1,6</t>
+          <t>-13,08; 4,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-15,81; -3,19</t>
+          <t>-10,06; 9,83</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-6,56; 2,38</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-6,43; 2,59</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-7,63; 1,59</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-7,76; 2,01</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-15,13; -2,0</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-8,25; 5,8</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,29%</t>
+          <t>-3,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,75%</t>
+          <t>-1,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>-4,72%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>-3,79%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-21,17%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-5,31%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-4,02%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-5,4%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-4,59%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-4,9%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-8,08%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-3,6%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-3,24%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>-4,63%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-19,87%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-3,71%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-5,76%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-4,55%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-13,2%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-2,98%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-3,13%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-4,57%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-16,65%</t>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-4,3%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-15,0%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-2,39%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 8,96</t>
+          <t>-13,95; 7,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 8,95</t>
+          <t>-11,29; 9,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 5,78</t>
+          <t>-14,17; 6,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,9; -7,32</t>
+          <t>-14,45; 7,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 6,4</t>
+          <t>-35,03; -6,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 3,85</t>
+          <t>-23,84; 15,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 5,63</t>
+          <t>-13,59; 7,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,09; 0,35</t>
+          <t>-14,52; 3,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 5,17</t>
+          <t>-15,16; 4,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 4,23</t>
+          <t>-15,92; 5,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 2,65</t>
+          <t>-22,07; 7,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-25,01; -5,27</t>
+          <t>-17,87; 20,77</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-10,33; 3,81</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-10,06; 4,16</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-11,91; 2,67</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-12,12; 3,32</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-24,98; -3,99</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-15,17; 12,17</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-5,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>-7,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,67</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-5,85</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>-3,43</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-5,75</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-10,46</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-3,96</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-6,17</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,92</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-4,29</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-6,65</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-5,49</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 12,75</t>
+          <t>-17,86; 9,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 8,02</t>
+          <t>-18,19; 8,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 7,41</t>
+          <t>-21,95; 6,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-14,6; 12,93</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-6,74; 9,44</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 4,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 2,99</t>
+          <t>-6,99; 8,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-11,88; 5,14</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-15,07; 2,26</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-22,3; -1,46</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-7,92; 8,49</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-11,22; 3,58</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-13,64; 1,7</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-9,69; 7,79</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-12,3; 3,89</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-15,22; 1,82</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-13,54; 3,35</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>-3,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,26%</t>
+          <t>-6,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,22%</t>
+          <t>-9,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-0,77%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1,99%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-6,97%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>-4,09%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-6,85%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-12,46%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,41%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-4,87%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-7,58%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-1,13%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-5,27%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-8,17%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-6,74%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 17,4</t>
+          <t>-21,39; 13,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 11,6</t>
+          <t>-21,58; 10,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 10,04</t>
+          <t>-26,87; 8,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-17,63; 18,03</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-7,64; 11,74</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 5,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 3,64</t>
+          <t>-8,03; 10,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-13,71; 6,37</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-17,27; 2,69</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-25,15; -1,77</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-9,31; 11,19</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-13,3; 4,71</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-16,27; 1,94</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-11,65; 10,25</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-14,61; 5,02</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-17,98; 2,24</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-16,04; 4,09</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-17,77</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-16,05</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-15,39</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-12,23</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>-16,55</t>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,01</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-1,59</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-1,92</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-14,09</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 3,68</t>
+          <t>-6,19; 2,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 3,35</t>
+          <t>-5,91; 2,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 2,48</t>
+          <t>-5,96; 2,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-22,11; -13,44</t>
+          <t>-6,38; 3,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 4,0</t>
+          <t>-20,51; -10,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 1,87</t>
+          <t>-4,15; 4,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 1,89</t>
+          <t>-4,06; 3,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-19,41; -11,25</t>
+          <t>-5,17; 2,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 2,52</t>
+          <t>-5,6; 1,73</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 1,47</t>
+          <t>-6,02; 1,97</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 1,09</t>
+          <t>-16,7; -7,88</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-19,57; -13,52</t>
+          <t>-3,39; 5,39</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 1,74</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 0,98</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-4,4; 1,03</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-4,63; 1,7</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-17,3; -10,76</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 3,99</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,2%</t>
+          <t>-3,06%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,74%</t>
+          <t>-3,22%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,26%</t>
+          <t>-3,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-34,75%</t>
+          <t>-2,34%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,0%</t>
+          <t>-32,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,25%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,64%</t>
+          <t>-1,01%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-31,88%</t>
+          <t>-3,18%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-0,6%</t>
+          <t>-3,74%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-2,49%</t>
+          <t>-4,23%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-3,45%</t>
+          <t>-26,45%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>-33,31%</t>
+          <t>3,4%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-2,04%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-3,2%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-3,86%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-3,29%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-29,33%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 7,44</t>
+          <t>-11,51; 6,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 6,79</t>
+          <t>-10,87; 4,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 5,11</t>
+          <t>-11,35; 4,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,98; -27,29</t>
+          <t>-12,07; 6,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 8,68</t>
+          <t>-39,1; -22,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 4,08</t>
+          <t>-11,95; 14,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 4,17</t>
+          <t>-8,12; 7,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-39,24; -24,0</t>
+          <t>-10,42; 4,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 5,18</t>
+          <t>-11,17; 3,77</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 3,05</t>
+          <t>-11,93; 4,29</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 2,15</t>
+          <t>-34,46; -17,9</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-38,25; -27,87</t>
+          <t>-9,68; 18,02</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-8,01; 3,61</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-8,75; 2,01</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-8,71; 2,16</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-9,09; 3,47</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-34,93; -23,3</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-6,59; 12,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
